--- a/Lecture_4/Assigment_4/output/sbs/group4/table_scotiabank.xlsx
+++ b/Lecture_4/Assigment_4/output/sbs/group4/table_scotiabank.xlsx
@@ -417,7 +417,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -429,7 +429,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>98.66</v>
+        <v>100.69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -451,7 +451,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -463,12 +463,12 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>100.69</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -480,12 +480,12 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>95.37</v>
+        <v>111.35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -497,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>100.05</v>
+        <v>103.96</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -519,7 +519,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -531,12 +531,12 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>103.96</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>111.35</v>
+        <v>95.37</v>
       </c>
     </row>
   </sheetData>
